--- a/playstation/output/origins_countries_numberofgames.xlsx
+++ b/playstation/output/origins_countries_numberofgames.xlsx
@@ -40,10 +40,10 @@
     <t>Australia</t>
   </si>
   <si>
-    <t>Germany</t>
+    <t>Finland</t>
   </si>
   <si>
-    <t>Finland</t>
+    <t>Germany</t>
   </si>
   <si>
     <t>Poland</t>
@@ -73,7 +73,7 @@
     <t>China</t>
   </si>
   <si>
-    <t>Czech Republic</t>
+    <t>Wales</t>
   </si>
   <si>
     <t>Austria</t>
@@ -88,19 +88,46 @@
     <t>Republic of Ireland</t>
   </si>
   <si>
-    <t>Wales</t>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Korea Republic</t>
   </si>
   <si>
     <t>Belarus</t>
   </si>
   <si>
-    <t>Hungary</t>
+    <t>Lithuania</t>
   </si>
   <si>
-    <t>Iceland</t>
+    <t>Croatia</t>
   </si>
   <si>
-    <t>Korea Republic</t>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
   </si>
   <si>
     <t>Mexico</t>
@@ -115,46 +142,19 @@
     <t>Taiwan</t>
   </si>
   <si>
-    <t>Belgium</t>
+    <t>Northern Ireland</t>
   </si>
   <si>
-    <t>Northern Ireland</t>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>Belgium</t>
   </si>
   <si>
     <t>Bulgaria</t>
   </si>
   <si>
     <t>South Africa</t>
-  </si>
-  <si>
-    <t>Peru</t>
-  </si>
-  <si>
-    <t>Portugal</t>
-  </si>
-  <si>
-    <t>El Salvador</t>
-  </si>
-  <si>
-    <t>New Zealand</t>
-  </si>
-  <si>
-    <t>Israel</t>
-  </si>
-  <si>
-    <t>Lithuania</t>
-  </si>
-  <si>
-    <t>Croatia</t>
-  </si>
-  <si>
-    <t>Norway</t>
-  </si>
-  <si>
-    <t>Switzerland</t>
-  </si>
-  <si>
-    <t>Brazil</t>
   </si>
   <si>
     <t>Colombia</t>
@@ -467,7 +467,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3">
-        <v>279.0</v>
+        <v>290.0</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -499,7 +499,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="3">
-        <v>168.0</v>
+        <v>228.0</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -531,7 +531,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="3">
-        <v>163.0</v>
+        <v>168.0</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -563,7 +563,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="3">
-        <v>77.0</v>
+        <v>87.0</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -595,7 +595,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="3">
-        <v>37.0</v>
+        <v>39.0</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -627,7 +627,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="3">
-        <v>37.0</v>
+        <v>38.0</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -659,7 +659,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="3">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -723,7 +723,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="3">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -755,7 +755,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="3">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -979,7 +979,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="3">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>

--- a/playstation/output/origins_countries_numberofgames.xlsx
+++ b/playstation/output/origins_countries_numberofgames.xlsx
@@ -183,12 +183,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -201,7 +207,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -218,8 +224,921 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:view3D>
+      <c:rotX val="50"/>
+      <c:perspective val="0"/>
+    </c:view3D>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0"/>
+          <c:y val="0.0"/>
+          <c:w val="0.9891666666666666"/>
+          <c:h val="1.0"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>countries_numberofgames!$B$1</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:explosion val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4285F4"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFD966"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C9DAF8"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:explosion val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>countries_numberofgames!$A$2:$A$11</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>countries_numberofgames!$B$2:$B$11</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+      </c:pie3DChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="1" i="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="D9D9D9"/>
+    </a:solidFill>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>countries_numberofgames!$B$1</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF9900"/>
+            </a:solidFill>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="1" i="0"/>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>countries_numberofgames!$A$2:$A$11</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>countries_numberofgames!$B$2:$B$11</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="1942974840"/>
+        <c:axId val="472077088"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1942974840"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="none"/>
+        <c:spPr/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="1">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="472077088"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="472077088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="1">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1942974840"/>
+        <c:crosses val="max"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:view3D>
+      <c:rotX val="50"/>
+      <c:perspective val="0"/>
+    </c:view3D>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0"/>
+          <c:y val="0.0"/>
+          <c:w val="0.9891666666666666"/>
+          <c:h val="1.0"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>countries_numberofgames!$B$1</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:explosion val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4285F4"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFD966"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C9DAF8"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:explosion val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF9900"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0B5394"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00FF00"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="15"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="16"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="18"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00FF00"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="19"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="20"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="21"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="22"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00FF00"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="23"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="24"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00FF00"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="25"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="26"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="27"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00FF00"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="28"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="29"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="30"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4A86E8"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="31"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="32"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="33"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="34"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="35"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="980000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="36"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="37"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="38761D"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="38"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0235C8"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="39"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="40"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="41"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="42"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="43"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="44"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00FF00"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="45"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="274E13"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="46"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>countries_numberofgames!$A$2:$A$48</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>countries_numberofgames!$B$2:$B$48</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+      </c:pie3DChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="1" i="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="D9D9D9"/>
+    </a:solidFill>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5715000" cy="3533775"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1" name="Chart 1" title="Chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>914400</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5743575" cy="3533775"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 2" title="Chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5715000" cy="3533775"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 3" title="Chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -422,7 +1341,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
